--- a/medicine/Enfance/Sandrine_Gestin/Sandrine_Gestin.xlsx
+++ b/medicine/Enfance/Sandrine_Gestin/Sandrine_Gestin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandrine Gestin, née en 1969 à Quimper (Finistère), est une auteure de littérature jeunesse et une illustratrice française.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après un bac littéraire, Sandrine Gestin est admise à l'École supérieure d'arts graphiques Penninghen à Paris[1] où elle poursuit une formation de trois ans.
-Elle collabore avec le magazine Tilt, fournit des dessins pour l'éditeur de jeux Ubisoft, puis se tourne vers le monde de l'édition avec les Denoël et Gründ[2]. S'ensuivent des collaborations avec les Éditions Mnémos, J'ai lu, les magazines Casus Belli et Science &amp; Vie Junior, ainsi que des créations de cartes de jeux de rôles.
-Elle travaille pour les éditions Pré aux Clercs : La Petite Encyclopédie du merveilleux d'Édouard Brasey, Le Calendrier des fées ; ainsi que pour les Éditions Au Bord des Continents sur des livres dont elle est l'auteure comme : La petite faiseuse, ou L'étonnant voyage d'une fée ; Carnet de croquis ou Lily et la clef des songes ; Sous le signe des Fées ; La légende des Dames de Brocéliande[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après un bac littéraire, Sandrine Gestin est admise à l'École supérieure d'arts graphiques Penninghen à Paris où elle poursuit une formation de trois ans.
+Elle collabore avec le magazine Tilt, fournit des dessins pour l'éditeur de jeux Ubisoft, puis se tourne vers le monde de l'édition avec les Denoël et Gründ. S'ensuivent des collaborations avec les Éditions Mnémos, J'ai lu, les magazines Casus Belli et Science &amp; Vie Junior, ainsi que des créations de cartes de jeux de rôles.
+Elle travaille pour les éditions Pré aux Clercs : La Petite Encyclopédie du merveilleux d'Édouard Brasey, Le Calendrier des fées ; ainsi que pour les Éditions Au Bord des Continents sur des livres dont elle est l'auteure comme : La petite faiseuse, ou L'étonnant voyage d'une fée ; Carnet de croquis ou Lily et la clef des songes ; Sous le signe des Fées ; La légende des Dames de Brocéliande,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Couverture du jeu vidéo The Elder Scrolls: Arena, Ubisoft, 1993.
 Tilt, illustrations (quatre numéros), 1993.
@@ -625,10 +641,10 @@
 Couverture de « Le royaume de Tobin, l’éveil du sang» Tome 3, de Lynn Flewelling. Éditions France Loisirs, 2005.
 Illustrations intérieures N&amp;B et couleur (la Sylphe, le Pixie, la danse des Korrigans) pour La Petite Encyclopédie du merveilleux de Édouard Brasey, aux éditions Hors Collection, 2005.
 Couverture de « Le sacre de la nuit» de Louise Cooper Éditions Nestiveqnen, coll. Fantasy, 2005.
-La petite faiseuse, textes et illustrations, Morlaix, Au Bord des Continents, 2006[4].
+La petite faiseuse, textes et illustrations, Morlaix, Au Bord des Continents, 2006.
 Carnet de Croquis, recueil de croquis et d'illustrations de Sandrine Gestin, Morlaix, Au Bord des Continents, 2007.
 L'Encyclopédie du Hobbit, illustrations, Paris, Le Pré aux clercs, 2013.
-Merveilles et Légendes des Dames de Brocéliande, nouvelle édition, 2014[3]</t>
+Merveilles et Légendes des Dames de Brocéliande, nouvelle édition, 2014</t>
         </is>
       </c>
     </row>
@@ -656,7 +672,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2002 : Prix Imaginales meilleure illustration, pour sa couverture de Harmelinde et Deirdre (livre de Nicolas Cluzeau)
 2004 : lauréat du grand prix de l'Imaginaire, catégorie Artiste-Illustrateur, pour Dragonne de Didier Quesne.</t>
